--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>9</t>
+    <t>8</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>
@@ -30195,7 +30195,7 @@
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>87</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -2952,17 +2952,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.09765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2971,26 +2971,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="75.36328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="66.87109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8458,7 +8458,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -12082,7 +12082,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -15706,7 +15706,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -19330,7 +19330,7 @@
         <v>87</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -22954,7 +22954,7 @@
         <v>87</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
@@ -26578,7 +26578,7 @@
         <v>87</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>77</v>
@@ -30204,7 +30204,7 @@
         <v>87</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>77</v>
@@ -33830,7 +33830,7 @@
         <v>87</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>77</v>
@@ -37456,7 +37456,7 @@
         <v>79</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>77</v>
@@ -41082,7 +41082,7 @@
         <v>79</v>
       </c>
       <c r="H337" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I337" t="s" s="2">
         <v>77</v>
@@ -44708,7 +44708,7 @@
         <v>87</v>
       </c>
       <c r="H369" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I369" t="s" s="2">
         <v>77</v>
@@ -48332,7 +48332,7 @@
         <v>87</v>
       </c>
       <c r="H401" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I401" t="s" s="2">
         <v>77</v>
@@ -51956,7 +51956,7 @@
         <v>87</v>
       </c>
       <c r="H433" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I433" t="s" s="2">
         <v>77</v>
@@ -55580,7 +55580,7 @@
         <v>87</v>
       </c>
       <c r="H465" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I465" t="s" s="2">
         <v>77</v>
@@ -59206,7 +59206,7 @@
         <v>79</v>
       </c>
       <c r="H497" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I497" t="s" s="2">
         <v>77</v>
